--- a/Assets/Resources/AudianceSuffixs/SuffixContentList.xlsx
+++ b/Assets/Resources/AudianceSuffixs/SuffixContentList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JianingXU/GitHub/CSCI529/Assets/Resources/AudianceSuffixs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\AudianceSuffixs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7793CE-54C5-4CD5-A0B5-ADB8E236D61A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -69,15 +67,28 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>IsBoss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -101,20 +112,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{BC852320-3DC4-4CAF-86E6-3902688F7E3A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -382,20 +399,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
     <col min="3" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +443,14 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -456,6 +479,12 @@
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/AudianceSuffixs/SuffixContentList.xlsx
+++ b/Assets/Resources/AudianceSuffixs/SuffixContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\AudianceSuffixs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7793CE-54C5-4CD5-A0B5-ADB8E236D61A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1BF9B5-D73E-486C-A8FC-E44A7738312D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="3555" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>IsBoss</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -402,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -484,8 +487,8 @@
       <c r="K2">
         <v>4</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
+      <c r="L2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/AudianceSuffixs/SuffixContentList.xlsx
+++ b/Assets/Resources/AudianceSuffixs/SuffixContentList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\AudianceSuffixs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1BF9B5-D73E-486C-A8FC-E44A7738312D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B19E23-38AC-406A-9CC5-EAF827802BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3555" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2100" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -66,16 +66,142 @@
     <t>requestKoucai</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>Probability</t>
   </si>
   <si>
     <t>IsBoss</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>道士</t>
+  </si>
+  <si>
+    <t>策划</t>
+  </si>
+  <si>
+    <t>律师</t>
+  </si>
+  <si>
+    <t>公务员</t>
+  </si>
+  <si>
+    <t>瞎子</t>
+  </si>
+  <si>
+    <t>厨师</t>
+  </si>
+  <si>
+    <t>声优</t>
+  </si>
+  <si>
+    <t>星探</t>
+  </si>
+  <si>
+    <t>精神病院长</t>
+  </si>
+  <si>
+    <t>口才&amp;才艺维度需求额外增加1</t>
+  </si>
+  <si>
+    <t>口才&amp;技术维度需求额外增加1</t>
+  </si>
+  <si>
+    <t>口才维度需求额外增加2</t>
+  </si>
+  <si>
+    <t>口才&amp;抗压维度需求额外增加1</t>
+  </si>
+  <si>
+    <t>才艺维度需求额外增加1</t>
+  </si>
+  <si>
+    <t>才艺&amp;技术维度需求额外增加1</t>
+  </si>
+  <si>
+    <t>才艺&amp;抗压维度需求额外增加1</t>
+  </si>
+  <si>
+    <t>才艺&amp;口才维度需求额外增加1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 才艺&amp;口才&amp;抗压维度需求额外增加1</t>
+  </si>
+  <si>
+    <t>绅士</t>
+  </si>
+  <si>
+    <t>整容医生</t>
+  </si>
+  <si>
+    <t>网红</t>
+  </si>
+  <si>
+    <t>小学生</t>
+  </si>
+  <si>
+    <t>富二代</t>
+  </si>
+  <si>
+    <t>程序员</t>
+  </si>
+  <si>
+    <t>魔法师</t>
+  </si>
+  <si>
+    <t>出租车司机</t>
+  </si>
+  <si>
+    <t>黑客</t>
+  </si>
+  <si>
+    <t>快递员</t>
+  </si>
+  <si>
+    <t>外观维度需求额外增加1</t>
+  </si>
+  <si>
+    <t>外观维度需求额外增加2</t>
+  </si>
+  <si>
+    <t>外观&amp;才艺维度需求额外增加1</t>
+  </si>
+  <si>
+    <t>外观&amp;才艺&amp;技术&amp;抗压维度需求额外增加1</t>
+  </si>
+  <si>
+    <t>全维度需求额外增加1</t>
+  </si>
+  <si>
+    <t>技术维度需求增加1</t>
+  </si>
+  <si>
+    <t>技术&amp;抗压维度需求增加1</t>
+  </si>
+  <si>
+    <t>技术&amp;口才维度需求增加1</t>
+  </si>
+  <si>
+    <t>技术维度需求增加2</t>
+  </si>
+  <si>
+    <t>技术&amp;口才&amp;抗压维度需求增加1</t>
+  </si>
+  <si>
+    <t>requestCaiyi</t>
+  </si>
+  <si>
+    <t>requestWaiguan</t>
+  </si>
+  <si>
+    <t>requestAll</t>
+  </si>
+  <si>
+    <t>requestJishu</t>
+  </si>
+  <si>
+    <t>requestKangya</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -403,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
     <col min="3" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -447,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -463,15 +589,6 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
@@ -485,10 +602,603 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
